--- a/Deliverables Prioritisasi/Klasifikasi Kebutuhan.xlsx
+++ b/Deliverables Prioritisasi/Klasifikasi Kebutuhan.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arum\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0F2DE-4BAF-498E-977B-3A0DCEF90758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Klasifikasi kebutuhan" sheetId="1" r:id="rId4"/>
+    <sheet name="Klasifikasi kebutuhan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Kebutuhan Fungsional</t>
   </si>
@@ -199,25 +208,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -233,20 +246,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -255,9 +260,13 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -266,9 +275,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -277,61 +288,87 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -521,37 +558,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.0"/>
-    <col customWidth="1" min="3" max="3" width="72.43"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="36.0"/>
-    <col customWidth="1" min="7" max="7" width="7.57"/>
-    <col customWidth="1" min="8" max="8" width="19.0"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -561,10 +608,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -576,10 +623,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -591,10 +638,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -602,14 +649,14 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -617,12 +664,12 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -630,12 +677,12 @@
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -643,12 +690,12 @@
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -656,14 +703,14 @@
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -671,12 +718,12 @@
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -684,12 +731,12 @@
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>20</v>
@@ -697,12 +744,12 @@
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -710,14 +757,14 @@
       <c r="D15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>23</v>
@@ -725,12 +772,12 @@
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>24</v>
@@ -738,12 +785,12 @@
       <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
@@ -751,12 +798,12 @@
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -768,10 +815,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>29</v>
@@ -783,10 +830,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -798,10 +845,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>32</v>
@@ -809,14 +856,14 @@
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -824,12 +871,12 @@
       <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -837,14 +884,14 @@
       <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>36</v>
@@ -852,12 +899,12 @@
       <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>37</v>
@@ -865,14 +912,14 @@
       <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>39</v>
@@ -880,12 +927,12 @@
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
@@ -893,12 +940,12 @@
       <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>41</v>
@@ -906,14 +953,14 @@
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>43</v>
@@ -921,107 +968,109 @@
       <c r="D30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="33">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37">
+      <c r="D36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1037,6 +1086,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>